--- a/output/proyecciones/tasas_modelo.xlsx
+++ b/output/proyecciones/tasas_modelo.xlsx
@@ -361,7 +361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -377,12 +377,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>tasa</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
         </is>
       </c>
     </row>
@@ -397,11 +397,11 @@
           <t>15-19</t>
         </is>
       </c>
-      <c r="C2">
-        <v>24.05048387096774</v>
-      </c>
-      <c r="D2" s="2">
-        <v>73051</v>
+      <c r="C2" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D2">
+        <v>27.86</v>
       </c>
     </row>
     <row r="3">
@@ -415,11 +415,11 @@
           <t>20-24</t>
         </is>
       </c>
-      <c r="C3">
-        <v>66.6071935483871</v>
-      </c>
-      <c r="D3" s="2">
-        <v>73051</v>
+      <c r="C3" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D3">
+        <v>80.863</v>
       </c>
     </row>
     <row r="4">
@@ -433,11 +433,11 @@
           <t>25-29</t>
         </is>
       </c>
-      <c r="C4">
-        <v>88.71396774193548</v>
-      </c>
-      <c r="D4" s="2">
-        <v>73051</v>
+      <c r="C4" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D4">
+        <v>94.09399999999999</v>
       </c>
     </row>
     <row r="5">
@@ -451,11 +451,11 @@
           <t>30-34</t>
         </is>
       </c>
-      <c r="C5">
-        <v>93.41090322580645</v>
-      </c>
-      <c r="D5" s="2">
-        <v>73051</v>
+      <c r="C5" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D5">
+        <v>95.502</v>
       </c>
     </row>
     <row r="6">
@@ -469,11 +469,11 @@
           <t>35-39</t>
         </is>
       </c>
-      <c r="C6">
-        <v>93.91245161290323</v>
-      </c>
-      <c r="D6" s="2">
-        <v>73051</v>
+      <c r="C6" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D6">
+        <v>96.10899999999999</v>
       </c>
     </row>
     <row r="7">
@@ -487,11 +487,11 @@
           <t>40-44</t>
         </is>
       </c>
-      <c r="C7">
-        <v>93.26816129032258</v>
-      </c>
-      <c r="D7" s="2">
-        <v>73051</v>
+      <c r="C7" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D7">
+        <v>96.404</v>
       </c>
     </row>
     <row r="8">
@@ -505,11 +505,11 @@
           <t>45-49</t>
         </is>
       </c>
-      <c r="C8">
-        <v>91.78545161290323</v>
-      </c>
-      <c r="D8" s="2">
-        <v>73051</v>
+      <c r="C8" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D8">
+        <v>95.25700000000001</v>
       </c>
     </row>
     <row r="9">
@@ -523,11 +523,11 @@
           <t>50-54</t>
         </is>
       </c>
-      <c r="C9">
-        <v>88.55451612903227</v>
-      </c>
-      <c r="D9" s="2">
-        <v>73051</v>
+      <c r="C9" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D9">
+        <v>92.874</v>
       </c>
     </row>
     <row r="10">
@@ -541,11 +541,11 @@
           <t>55-59</t>
         </is>
       </c>
-      <c r="C10">
-        <v>81.55487096774193</v>
-      </c>
-      <c r="D10" s="2">
-        <v>73051</v>
+      <c r="C10" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D10">
+        <v>86.988</v>
       </c>
     </row>
     <row r="11">
@@ -559,11 +559,11 @@
           <t>60-64</t>
         </is>
       </c>
-      <c r="C11">
-        <v>57.6618064516129</v>
-      </c>
-      <c r="D11" s="2">
-        <v>73051</v>
+      <c r="C11" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D11">
+        <v>61.967</v>
       </c>
     </row>
     <row r="12">
@@ -577,11 +577,11 @@
           <t>65+</t>
         </is>
       </c>
-      <c r="C12">
-        <v>14.07825806451613</v>
-      </c>
-      <c r="D12" s="2">
-        <v>73051</v>
+      <c r="C12" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D12">
+        <v>22.345</v>
       </c>
     </row>
     <row r="13">
@@ -595,11 +595,11 @@
           <t>15-19</t>
         </is>
       </c>
-      <c r="C13">
-        <v>22.80990322580645</v>
-      </c>
-      <c r="D13" s="2">
-        <v>73051</v>
+      <c r="C13" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D13">
+        <v>18.22</v>
       </c>
     </row>
     <row r="14">
@@ -613,11 +613,11 @@
           <t>20-24</t>
         </is>
       </c>
-      <c r="C14">
-        <v>60.33606451612903</v>
-      </c>
-      <c r="D14" s="2">
-        <v>73051</v>
+      <c r="C14" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D14">
+        <v>71.68091666666666</v>
       </c>
     </row>
     <row r="15">
@@ -631,11 +631,11 @@
           <t>25-29</t>
         </is>
       </c>
-      <c r="C15">
-        <v>79.80519354838709</v>
-      </c>
-      <c r="D15" s="2">
-        <v>73051</v>
+      <c r="C15" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D15">
+        <v>81.70208333333333</v>
       </c>
     </row>
     <row r="16">
@@ -649,11 +649,11 @@
           <t>30-34</t>
         </is>
       </c>
-      <c r="C16">
-        <v>81.12509677419355</v>
-      </c>
-      <c r="D16" s="2">
-        <v>73051</v>
+      <c r="C16" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D16">
+        <v>81.39116666666666</v>
       </c>
     </row>
     <row r="17">
@@ -667,11 +667,11 @@
           <t>35-39</t>
         </is>
       </c>
-      <c r="C17">
-        <v>83.07767741935484</v>
-      </c>
-      <c r="D17" s="2">
-        <v>73051</v>
+      <c r="C17" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D17">
+        <v>82.77375000000001</v>
       </c>
     </row>
     <row r="18">
@@ -685,11 +685,11 @@
           <t>40-44</t>
         </is>
       </c>
-      <c r="C18">
-        <v>85.09187096774194</v>
-      </c>
-      <c r="D18" s="2">
-        <v>73051</v>
+      <c r="C18" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D18">
+        <v>84.29916666666666</v>
       </c>
     </row>
     <row r="19">
@@ -703,11 +703,11 @@
           <t>45-49</t>
         </is>
       </c>
-      <c r="C19">
-        <v>84.64409677419354</v>
-      </c>
-      <c r="D19" s="2">
-        <v>73051</v>
+      <c r="C19" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D19">
+        <v>85.527</v>
       </c>
     </row>
     <row r="20">
@@ -721,11 +721,11 @@
           <t>50-54</t>
         </is>
       </c>
-      <c r="C20">
-        <v>81.01096774193549</v>
-      </c>
-      <c r="D20" s="2">
-        <v>73051</v>
+      <c r="C20" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D20">
+        <v>83.78766666666667</v>
       </c>
     </row>
     <row r="21">
@@ -739,11 +739,11 @@
           <t>55-59</t>
         </is>
       </c>
-      <c r="C21">
-        <v>70.95741935483871</v>
-      </c>
-      <c r="D21" s="2">
-        <v>73051</v>
+      <c r="C21" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D21">
+        <v>78.03416666666666</v>
       </c>
     </row>
     <row r="22">
@@ -757,11 +757,11 @@
           <t>60-64</t>
         </is>
       </c>
-      <c r="C22">
-        <v>43.88387096774193</v>
-      </c>
-      <c r="D22" s="2">
-        <v>73051</v>
+      <c r="C22" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D22">
+        <v>57.98033333333333</v>
       </c>
     </row>
     <row r="23">
@@ -775,11 +775,11 @@
           <t>65+</t>
         </is>
       </c>
-      <c r="C23">
-        <v>7.495677419354839</v>
-      </c>
-      <c r="D23" s="2">
-        <v>73051</v>
+      <c r="C23" s="2">
+        <v>73051</v>
+      </c>
+      <c r="D23">
+        <v>9.69675</v>
       </c>
     </row>
   </sheetData>
